--- a/pa2/results.xlsx
+++ b/pa2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwest/drive/msu/spring2019/csci566/csci566_pa/pa2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{10509DAC-3E20-CB48-A925-08245EF2CA47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15ECFF64-C21E-8747-B905-0EFFB86E6BB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28:I28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -933,13 +933,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.09852093916672E-2</v>
+        <v>10.985209391667199</v>
       </c>
       <c r="H2">
-        <v>1.0865449905395499E-2</v>
+        <v>10.865449905395499</v>
       </c>
       <c r="I2">
-        <v>1.11355781555175E-2</v>
+        <v>11.1355781555175</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -963,13 +963,13 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1.0966841991131101E-2</v>
+        <v>10.966841991131101</v>
       </c>
       <c r="H3">
-        <v>1.0852813720703101E-2</v>
+        <v>10.8528137207031</v>
       </c>
       <c r="I3">
-        <v>1.1096477508544899E-2</v>
+        <v>11.096477508544899</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -993,13 +993,13 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <v>1.0877893521235501E-2</v>
+        <v>10.877893521235501</v>
       </c>
       <c r="H4">
-        <v>1.0804176330566399E-2</v>
+        <v>10.804176330566399</v>
       </c>
       <c r="I4">
-        <v>1.0969161987304601E-2</v>
+        <v>10.9691619873046</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1023,13 +1023,13 @@
         <v>8</v>
       </c>
       <c r="G5">
-        <v>1.09135004190298E-2</v>
+        <v>10.9135004190298</v>
       </c>
       <c r="H5">
-        <v>1.08604431152343E-2</v>
+        <v>10.8604431152343</v>
       </c>
       <c r="I5">
-        <v>1.0988712310791E-2</v>
+        <v>10.988712310791</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1053,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="G6">
-        <v>1.08282015873835E-2</v>
+        <v>10.8282015873835</v>
       </c>
       <c r="H6">
-        <v>1.0720491409301701E-2</v>
+        <v>10.720491409301701</v>
       </c>
       <c r="I6">
-        <v>1.09062194824218E-2</v>
+        <v>10.9062194824218</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1083,13 +1083,13 @@
         <v>32</v>
       </c>
       <c r="G7">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H7">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I7">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1113,13 +1113,13 @@
         <v>64</v>
       </c>
       <c r="G8">
-        <v>1.08099717360276E-2</v>
+        <v>10.809971736027601</v>
       </c>
       <c r="H8">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I8">
-        <v>1.26638412475585E-2</v>
+        <v>12.6638412475585</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1143,13 +1143,13 @@
         <v>128</v>
       </c>
       <c r="G9">
-        <v>1.08146942578829E-2</v>
+        <v>10.8146942578829</v>
       </c>
       <c r="H9">
-        <v>1.07066631317138E-2</v>
+        <v>10.7066631317138</v>
       </c>
       <c r="I9">
-        <v>1.0946989059448201E-2</v>
+        <v>10.946989059448201</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1173,13 +1173,13 @@
         <v>256</v>
       </c>
       <c r="G10">
-        <v>1.06680484918447E-2</v>
+        <v>10.668048491844699</v>
       </c>
       <c r="H10">
-        <v>1.05814933776855E-2</v>
+        <v>10.581493377685501</v>
       </c>
       <c r="I10">
-        <v>1.0779142379760701E-2</v>
+        <v>10.779142379760701</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1203,13 +1203,13 @@
         <v>512</v>
       </c>
       <c r="G11">
-        <v>1.0708708029526901E-2</v>
+        <v>10.708708029526901</v>
       </c>
       <c r="H11">
-        <v>1.06444358825683E-2</v>
+        <v>10.644435882568301</v>
       </c>
       <c r="I11">
-        <v>1.0854721069335899E-2</v>
+        <v>10.8547210693359</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1233,13 +1233,13 @@
         <v>1024</v>
       </c>
       <c r="G12">
-        <v>1.06568794984083E-2</v>
+        <v>10.6568794984083</v>
       </c>
       <c r="H12">
-        <v>1.0526180267333899E-2</v>
+        <v>10.526180267333899</v>
       </c>
       <c r="I12">
-        <v>1.15153789520263E-2</v>
+        <v>11.5153789520263</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1263,13 +1263,13 @@
         <v>2048</v>
       </c>
       <c r="G13">
-        <v>0.79364535922095802</v>
+        <v>793.64535922095797</v>
       </c>
       <c r="H13">
-        <v>1.0170698165893499E-2</v>
+        <v>10.1706981658935</v>
       </c>
       <c r="I13">
-        <v>5.0020437240600497</v>
+        <v>5002.0437240600495</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1293,13 +1293,13 @@
         <v>4096</v>
       </c>
       <c r="G14">
-        <v>6.1534560643709602E-2</v>
+        <v>61.534560643709604</v>
       </c>
       <c r="H14">
-        <v>1.03456974029541E-2</v>
+        <v>10.3456974029541</v>
       </c>
       <c r="I14">
-        <v>0.99997854232787997</v>
+        <v>999.97854232787995</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1323,13 +1323,13 @@
         <v>8192</v>
       </c>
       <c r="G15">
-        <v>5.3745911671565103E-2</v>
+        <v>53.745911671565104</v>
       </c>
       <c r="H15">
-        <v>1.0323524475097601E-2</v>
+        <v>10.323524475097601</v>
       </c>
       <c r="I15">
-        <v>1.00017094612121</v>
+        <v>1000.17094612121</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1353,13 +1353,13 @@
         <v>16384</v>
       </c>
       <c r="G16">
-        <v>0.26500180244445798</v>
+        <v>265.00180244445795</v>
       </c>
       <c r="H16">
-        <v>2.5394678115844699E-2</v>
+        <v>25.394678115844698</v>
       </c>
       <c r="I16">
-        <v>5.0029535293579102</v>
+        <v>5002.9535293579102</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,13 +1383,13 @@
         <v>32768</v>
       </c>
       <c r="G17">
-        <v>9.6956528150118307E-2</v>
+        <v>96.956528150118302</v>
       </c>
       <c r="H17">
-        <v>4.8162937164306599E-2</v>
+        <v>48.162937164306598</v>
       </c>
       <c r="I17">
-        <v>1.0206701755523599</v>
+        <v>1020.67017555236</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1413,13 +1413,13 @@
         <v>65536</v>
       </c>
       <c r="G18">
-        <v>0.15800372453836201</v>
+        <v>158.00372453836201</v>
       </c>
       <c r="H18">
-        <v>0.110897302627563</v>
+        <v>110.89730262756301</v>
       </c>
       <c r="I18">
-        <v>1.11446976661682</v>
+        <v>1114.4697666168199</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1443,13 +1443,13 @@
         <v>131072</v>
       </c>
       <c r="G19">
-        <v>0.35901965544773901</v>
+        <v>359.01965544773901</v>
       </c>
       <c r="H19">
-        <v>0.23605728149413999</v>
+        <v>236.05728149414</v>
       </c>
       <c r="I19">
-        <v>2.21506524085998</v>
+        <v>2215.0652408599799</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1473,13 +1473,13 @@
         <v>262144</v>
       </c>
       <c r="G20">
-        <v>0.57830743606273904</v>
+        <v>578.30743606273904</v>
       </c>
       <c r="H20">
-        <v>0.48844194412231401</v>
+        <v>488.441944122314</v>
       </c>
       <c r="I20">
-        <v>1.6163094043731601</v>
+        <v>1616.3094043731601</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1503,13 +1503,13 @@
         <v>524288</v>
       </c>
       <c r="G21">
-        <v>1.0657825928467899</v>
+        <v>1065.7825928467898</v>
       </c>
       <c r="H21">
-        <v>0.99120926856994596</v>
+        <v>991.20926856994595</v>
       </c>
       <c r="I21">
-        <v>1.9860715866088801</v>
+        <v>1986.0715866088801</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1533,13 +1533,13 @@
         <v>1048576</v>
       </c>
       <c r="G22">
-        <v>2.2918052398241402</v>
+        <v>2291.8052398241402</v>
       </c>
       <c r="H22">
-        <v>2.00576567649841</v>
+        <v>2005.7656764984099</v>
       </c>
       <c r="I22">
-        <v>3.6685206890106201</v>
+        <v>3668.5206890106201</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1562,13 +1562,13 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.09042930603027E-2</v>
+        <v>30.904293060302699</v>
       </c>
       <c r="H23">
-        <v>3.07180881500244E-2</v>
+        <v>30.7180881500244</v>
       </c>
       <c r="I23">
-        <v>3.1244516372680602E-2</v>
+        <v>31.2445163726806</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1592,13 +1592,13 @@
         <v>2</v>
       </c>
       <c r="G24">
-        <v>3.0928529225862901E-2</v>
+        <v>30.928529225862903</v>
       </c>
       <c r="H24">
-        <v>3.07338237762451E-2</v>
+        <v>30.733823776245099</v>
       </c>
       <c r="I24">
-        <v>3.1182527542114199E-2</v>
+        <v>31.182527542114197</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1622,13 +1622,13 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <v>3.08449360040517E-2</v>
+        <v>30.8449360040517</v>
       </c>
       <c r="H25">
-        <v>3.07390689849853E-2</v>
+        <v>30.739068984985298</v>
       </c>
       <c r="I25">
-        <v>3.10790538787841E-2</v>
+        <v>31.079053878784102</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1652,13 +1652,13 @@
         <v>8</v>
       </c>
       <c r="G26">
-        <v>3.11252520634577E-2</v>
+        <v>31.125252063457701</v>
       </c>
       <c r="H26">
-        <v>3.0915260314941399E-2</v>
+        <v>30.915260314941399</v>
       </c>
       <c r="I26">
-        <v>3.2579898834228502E-2</v>
+        <v>32.579898834228501</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1682,13 +1682,13 @@
         <v>16</v>
       </c>
       <c r="G27">
-        <v>3.0931399418757499E-2</v>
+        <v>30.931399418757501</v>
       </c>
       <c r="H27">
-        <v>3.07686328887939E-2</v>
+        <v>30.768632888793899</v>
       </c>
       <c r="I27">
-        <v>3.1100988388061499E-2</v>
+        <v>31.100988388061499</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1712,13 +1712,13 @@
         <v>32</v>
       </c>
       <c r="G28">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H28">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I28">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1742,13 +1742,13 @@
         <v>64</v>
       </c>
       <c r="G29">
-        <v>3.0951600808363601E-2</v>
+        <v>30.951600808363601</v>
       </c>
       <c r="H29">
-        <v>3.0765295028686499E-2</v>
+        <v>30.765295028686499</v>
       </c>
       <c r="I29">
-        <v>3.2842636108398403E-2</v>
+        <v>32.842636108398402</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1772,13 +1772,13 @@
         <v>128</v>
       </c>
       <c r="G30">
-        <v>3.1104610516474701E-2</v>
+        <v>31.1046105164747</v>
       </c>
       <c r="H30">
-        <v>3.09412479400634E-2</v>
+        <v>30.941247940063402</v>
       </c>
       <c r="I30">
-        <v>3.1461477279663003E-2</v>
+        <v>31.461477279663004</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -1802,13 +1802,13 @@
         <v>256</v>
       </c>
       <c r="G31">
-        <v>3.0930638313293402E-2</v>
+        <v>30.9306383132934</v>
       </c>
       <c r="H31">
-        <v>3.0763149261474599E-2</v>
+        <v>30.763149261474599</v>
       </c>
       <c r="I31">
-        <v>3.1122922897338801E-2</v>
+        <v>31.1229228973388</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -1832,13 +1832,13 @@
         <v>512</v>
       </c>
       <c r="G32">
-        <v>3.11074531995333E-2</v>
+        <v>31.1074531995333</v>
       </c>
       <c r="H32">
-        <v>3.0969858169555602E-2</v>
+        <v>30.9698581695556</v>
       </c>
       <c r="I32">
-        <v>3.1301975250244099E-2</v>
+        <v>31.301975250244098</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -1862,13 +1862,13 @@
         <v>1024</v>
       </c>
       <c r="G33">
-        <v>3.1008546168987499E-2</v>
+        <v>31.0085461689875</v>
       </c>
       <c r="H33">
-        <v>3.0861616134643499E-2</v>
+        <v>30.861616134643498</v>
       </c>
       <c r="I33">
-        <v>3.1830549240112298E-2</v>
+        <v>31.830549240112298</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -1892,13 +1892,13 @@
         <v>2048</v>
       </c>
       <c r="G34">
-        <v>0.91570030318366102</v>
+        <v>915.70030318366105</v>
       </c>
       <c r="H34">
-        <v>3.0767679214477501E-2</v>
+        <v>30.7676792144775</v>
       </c>
       <c r="I34">
-        <v>5.2524373531341499</v>
+        <v>5252.4373531341498</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -1922,13 +1922,13 @@
         <v>4096</v>
       </c>
       <c r="G35">
-        <v>5.1745802164077703E-2</v>
+        <v>51.745802164077702</v>
       </c>
       <c r="H35">
-        <v>3.1189203262329102E-2</v>
+        <v>31.189203262329102</v>
       </c>
       <c r="I35">
-        <v>0.20231819152832001</v>
+        <v>202.31819152832</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -1952,13 +1952,13 @@
         <v>8192</v>
       </c>
       <c r="G36">
-        <v>3.91674836476643E-2</v>
+        <v>39.167483647664298</v>
       </c>
       <c r="H36">
-        <v>3.12037467956542E-2</v>
+        <v>31.203746795654201</v>
       </c>
       <c r="I36">
-        <v>0.10135221481323201</v>
+        <v>101.35221481323201</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -1982,13 +1982,13 @@
         <v>16384</v>
       </c>
       <c r="G37">
-        <v>0.25437816977500899</v>
+        <v>254.37816977500898</v>
       </c>
       <c r="H37">
-        <v>4.6462297439575098E-2</v>
+        <v>46.462297439575096</v>
       </c>
       <c r="I37">
-        <v>5.0251801013946498</v>
+        <v>5025.1801013946497</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2012,13 +2012,13 @@
         <v>32768</v>
       </c>
       <c r="G38">
-        <v>8.0163185413067106E-2</v>
+        <v>80.163185413067112</v>
       </c>
       <c r="H38">
-        <v>5.8978080749511698E-2</v>
+        <v>58.978080749511697</v>
       </c>
       <c r="I38">
-        <v>0.147373676300048</v>
+        <v>147.373676300048</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2042,13 +2042,13 @@
         <v>65536</v>
       </c>
       <c r="G39">
-        <v>0.13991268781515201</v>
+        <v>139.912687815152</v>
       </c>
       <c r="H39">
-        <v>0.118169546127319</v>
+        <v>118.16954612731901</v>
       </c>
       <c r="I39">
-        <v>0.149929285049438</v>
+        <v>149.92928504943799</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2072,13 +2072,13 @@
         <v>131072</v>
       </c>
       <c r="G40">
-        <v>0.341042060118455</v>
+        <v>341.04206011845503</v>
       </c>
       <c r="H40">
-        <v>0.24528121948242099</v>
+        <v>245.28121948242099</v>
       </c>
       <c r="I40">
-        <v>2.2361986637115399</v>
+        <v>2236.1986637115397</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2102,13 +2102,13 @@
         <v>262144</v>
       </c>
       <c r="G41">
-        <v>0.56048761881314701</v>
+        <v>560.48761881314704</v>
       </c>
       <c r="H41">
-        <v>0.49960708618164001</v>
+        <v>499.60708618164</v>
       </c>
       <c r="I41">
-        <v>1.6376361846923799</v>
+        <v>1637.6361846923799</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2132,13 +2132,13 @@
         <v>524288</v>
       </c>
       <c r="G42">
-        <v>1.0482758100216201</v>
+        <v>1048.2758100216201</v>
       </c>
       <c r="H42">
-        <v>0.99035763740539495</v>
+        <v>990.35763740539494</v>
       </c>
       <c r="I42">
-        <v>1.8096551895141599</v>
+        <v>1809.6551895141599</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1048576</v>
       </c>
       <c r="G43">
-        <v>2.2747632081692002</v>
+        <v>2274.7632081692</v>
       </c>
       <c r="H43">
-        <v>2.02763366699218</v>
+        <v>2027.63366699218</v>
       </c>
       <c r="I43">
-        <v>3.5741868019103999</v>
+        <v>3574.1868019103999</v>
       </c>
     </row>
   </sheetData>
@@ -2182,7 +2182,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:J3"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <v>3.5837173461914E-2</v>
+        <v>35.837173461913999</v>
       </c>
       <c r="I2">
-        <v>1.0155351161956701</v>
+        <v>1015.5351161956701</v>
       </c>
       <c r="J2">
-        <v>0.17492847259228</v>
+        <v>174.92847259228</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2274,13 +2274,13 @@
         <v>3</v>
       </c>
       <c r="H3">
-        <v>4.4154882431030197E-2</v>
+        <v>44.154882431030195</v>
       </c>
       <c r="I3">
-        <v>1.03712677955627</v>
+        <v>1037.1267795562699</v>
       </c>
       <c r="J3">
-        <v>0.35360926848191399</v>
+        <v>353.609268481914</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2306,13 +2306,13 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>3.4935474395751898E-2</v>
+        <v>34.935474395751896</v>
       </c>
       <c r="I4">
-        <v>1.0606274604797301</v>
+        <v>1060.6274604797302</v>
       </c>
       <c r="J4">
-        <v>0.28486573696136402</v>
+        <v>284.86573696136401</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2338,13 +2338,13 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>4.8577785491943297E-2</v>
+        <v>48.577785491943295</v>
       </c>
       <c r="I5">
-        <v>1.03482842445373</v>
+        <v>1034.8284244537301</v>
       </c>
       <c r="J5">
-        <v>0.394716171117929</v>
+        <v>394.71617111792898</v>
       </c>
     </row>
   </sheetData>
@@ -2357,7 +2357,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2411,13 +2411,13 @@
         <v>32</v>
       </c>
       <c r="G2">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H2">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I2">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
       <c r="J2" t="s">
         <v>23</v>
@@ -2444,13 +2444,13 @@
         <v>32</v>
       </c>
       <c r="G3">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H3">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I3">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2474,13 +2474,13 @@
         <v>32</v>
       </c>
       <c r="G4">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H4">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I4">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2504,13 +2504,13 @@
         <v>32</v>
       </c>
       <c r="G5">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H5">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I5">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2534,13 +2534,13 @@
         <v>32</v>
       </c>
       <c r="G6">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H6">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I6">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -2564,13 +2564,13 @@
         <v>32</v>
       </c>
       <c r="G7">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H7">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I7">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -2594,13 +2594,13 @@
         <v>32</v>
       </c>
       <c r="G8">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H8">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I8">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -2624,13 +2624,13 @@
         <v>32</v>
       </c>
       <c r="G9">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H9">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I9">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -2654,13 +2654,13 @@
         <v>32</v>
       </c>
       <c r="G10">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H10">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I10">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -2684,13 +2684,13 @@
         <v>32</v>
       </c>
       <c r="G11">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H11">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I11">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -2714,13 +2714,13 @@
         <v>32</v>
       </c>
       <c r="G12">
-        <v>1.0783433914184499E-2</v>
+        <v>10.783433914184499</v>
       </c>
       <c r="H12">
-        <v>1.0687112808227499E-2</v>
+        <v>10.6871128082275</v>
       </c>
       <c r="I12">
-        <v>1.0880708694457999E-2</v>
+        <v>10.880708694457999</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -2743,13 +2743,13 @@
         <v>32</v>
       </c>
       <c r="G13">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H13">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I13">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
@@ -2773,13 +2773,13 @@
         <v>32</v>
       </c>
       <c r="G14">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H14">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I14">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
@@ -2803,13 +2803,13 @@
         <v>32</v>
       </c>
       <c r="G15">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H15">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I15">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
@@ -2833,13 +2833,13 @@
         <v>32</v>
       </c>
       <c r="G16">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H16">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I16">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -2863,13 +2863,13 @@
         <v>32</v>
       </c>
       <c r="G17">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H17">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I17">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -2893,13 +2893,13 @@
         <v>32</v>
       </c>
       <c r="G18">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H18">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I18">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -2923,13 +2923,13 @@
         <v>32</v>
       </c>
       <c r="G19">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H19">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I19">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -2953,13 +2953,13 @@
         <v>32</v>
       </c>
       <c r="G20">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H20">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I20">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -2983,13 +2983,13 @@
         <v>32</v>
       </c>
       <c r="G21">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H21">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I21">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -3013,13 +3013,13 @@
         <v>32</v>
       </c>
       <c r="G22">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H22">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I22">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -3043,13 +3043,13 @@
         <v>32</v>
       </c>
       <c r="G23">
-        <v>3.0908859693087001E-2</v>
+        <v>30.908859693087003</v>
       </c>
       <c r="H23">
-        <v>3.07586193084716E-2</v>
+        <v>30.758619308471602</v>
       </c>
       <c r="I23">
-        <v>3.1133651733398399E-2</v>
+        <v>31.133651733398398</v>
       </c>
     </row>
   </sheetData>
@@ -3061,7 +3061,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -3474,7 +3474,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C23"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/pa2/results.xlsx
+++ b/pa2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwest/drive/msu/spring2019/csci566/csci566_pa/pa2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{15ECFF64-C21E-8747-B905-0EFFB86E6BB4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{429A3260-33ED-8F46-B191-C38E64EAD8AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3473,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3524,6 +3524,15 @@
       <c r="F2">
         <v>32</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -3542,6 +3551,15 @@
       <c r="F3">
         <v>32</v>
       </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
@@ -3560,6 +3578,15 @@
       <c r="F4">
         <v>32</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
@@ -3578,6 +3605,15 @@
       <c r="F5">
         <v>32</v>
       </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.1764705882352899</v>
+      </c>
+      <c r="I5">
+        <v>1.9607843137254899</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
@@ -3596,6 +3632,15 @@
       <c r="F6">
         <v>32</v>
       </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1.2</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
@@ -3614,6 +3659,15 @@
       <c r="F7">
         <v>32</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1.19215686274509</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
@@ -3632,6 +3686,15 @@
       <c r="F8">
         <v>32</v>
       </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>3.73700088731144</v>
+      </c>
+      <c r="I8">
+        <v>6.5217391304347698</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
@@ -3650,6 +3713,15 @@
       <c r="F9">
         <v>32</v>
       </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
@@ -3668,6 +3740,15 @@
       <c r="F10">
         <v>32</v>
       </c>
+      <c r="G10">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="H10">
+        <v>1.9921568627451001</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
@@ -3686,6 +3767,15 @@
       <c r="F11">
         <v>32</v>
       </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.81632653061224503</v>
+      </c>
+      <c r="I11">
+        <v>4.0816326530612201</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
@@ -3704,6 +3794,15 @@
       <c r="F12">
         <v>32</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1.60032012805122</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
@@ -3720,6 +3819,15 @@
       </c>
       <c r="F13">
         <v>32</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3739,6 +3847,15 @@
       <c r="F14">
         <v>32</v>
       </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.39215686274509798</v>
+      </c>
+      <c r="I14">
+        <v>1.9607843137254899</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
@@ -3757,6 +3874,15 @@
       <c r="F15">
         <v>32</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.39215686274509798</v>
+      </c>
+      <c r="I15">
+        <v>1.9607843137254899</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
@@ -3775,8 +3901,17 @@
       <c r="F16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1.97647058823529</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -3793,8 +3928,17 @@
       <c r="F17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1.9921568627451001</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -3811,8 +3955,17 @@
       <c r="F18">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1.19215686274509</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -3829,8 +3982,17 @@
       <c r="F19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>5.8576752440106397</v>
+      </c>
+      <c r="I19">
+        <v>13.043478260869501</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -3847,8 +4009,17 @@
       <c r="F20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1.5610859728506801</v>
+      </c>
+      <c r="I20">
+        <v>1.9607843137254899</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -3865,8 +4036,17 @@
       <c r="F21">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="H21">
+        <v>3.5921568627450999</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -3883,8 +4063,17 @@
       <c r="F22">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>1.9607843137254899</v>
+      </c>
+      <c r="H22">
+        <v>3.6088035214085599</v>
+      </c>
+      <c r="I22">
+        <v>6.1224489795918302</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -3900,6 +4089,15 @@
       </c>
       <c r="F23">
         <v>32</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>2.80880352140856</v>
+      </c>
+      <c r="I23">
+        <v>6.1224489795918302</v>
       </c>
     </row>
   </sheetData>

--- a/pa2/results.xlsx
+++ b/pa2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwest/drive/msu/spring2019/csci566/csci566_pa/pa2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{429A3260-33ED-8F46-B191-C38E64EAD8AB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5744674C-899B-D24B-ABFE-D4F1FBA4B719}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="25">
   <si>
     <t>UDP</t>
   </si>
@@ -3473,8 +3473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3509,6 +3509,9 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -3535,6 +3538,9 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -3562,6 +3568,9 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -3589,6 +3598,9 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -3616,6 +3628,9 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -3643,6 +3658,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -3670,6 +3688,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -3697,6 +3718,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -3724,6 +3748,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -3751,6 +3778,9 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -3778,6 +3808,9 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -3805,6 +3838,9 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -3831,6 +3867,9 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -3858,6 +3897,9 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -3885,6 +3927,9 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
@@ -3911,7 +3956,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -3938,7 +3986,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -3965,7 +4016,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -3992,7 +4046,10 @@
         <v>13.043478260869501</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -4019,7 +4076,10 @@
         <v>1.9607843137254899</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -4046,7 +4106,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -4073,7 +4136,10 @@
         <v>6.1224489795918302</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -4109,8 +4175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4148,6 +4214,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
@@ -4166,8 +4235,20 @@
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0.136054421768707</v>
+      </c>
+      <c r="J2">
+        <v>2.0408163265306101</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
@@ -4187,8 +4268,20 @@
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0.68027210884353795</v>
+      </c>
+      <c r="J3">
+        <v>4.0816326530612201</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
@@ -4208,8 +4301,20 @@
       <c r="G4">
         <v>3</v>
       </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1.22448979591836</v>
+      </c>
+      <c r="J4">
+        <v>2.0408163265306101</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -4229,8 +4334,20 @@
       <c r="G5">
         <v>3</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0.40816326530612201</v>
+      </c>
+      <c r="J5">
+        <v>2.0408163265306101</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
@@ -4250,8 +4367,20 @@
       <c r="G6">
         <v>3</v>
       </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1.7687074829931899</v>
+      </c>
+      <c r="J6">
+        <v>6.1224489795918302</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -4271,8 +4400,20 @@
       <c r="G7">
         <v>3</v>
       </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1.6326530612244901</v>
+      </c>
+      <c r="J7">
+        <v>4.0816326530612201</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -4292,8 +4433,20 @@
       <c r="G8">
         <v>3</v>
       </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1.9047619047619</v>
+      </c>
+      <c r="J8">
+        <v>6.1224489795918302</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
@@ -4313,8 +4466,20 @@
       <c r="G9">
         <v>3</v>
       </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1.7687074829931899</v>
+      </c>
+      <c r="J9">
+        <v>6.1224489795918302</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
@@ -4334,8 +4499,20 @@
       <c r="G10">
         <v>3</v>
       </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>1.7687074829931899</v>
+      </c>
+      <c r="J10">
+        <v>4.0816326530612201</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
@@ -4355,8 +4532,20 @@
       <c r="G11">
         <v>3</v>
       </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2.4489795918367299</v>
+      </c>
+      <c r="J11">
+        <v>6.1224489795918302</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
@@ -4375,6 +4564,15 @@
       </c>
       <c r="G12">
         <v>3</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>2.1768707482993199</v>
+      </c>
+      <c r="J12">
+        <v>6.1224489795918302</v>
       </c>
     </row>
   </sheetData>

--- a/pa2/results.xlsx
+++ b/pa2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwest/drive/msu/spring2019/csci566/csci566_pa/pa2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5744674C-899B-D24B-ABFE-D4F1FBA4B719}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB130871-7FF5-B544-A729-2DCC4E715290}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="27">
   <si>
     <t>UDP</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>*UDP is connection-less</t>
+  </si>
+  <si>
+    <t>* begin fragmentation</t>
+  </si>
+  <si>
+    <t>na</t>
   </si>
 </sst>
 </file>
@@ -4175,7 +4181,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -4582,15 +4588,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>10</v>
       </c>
@@ -4629,8 +4635,11 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>10</v>
       </c>
@@ -4647,8 +4656,11 @@
         <f>F2*2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -4665,8 +4677,11 @@
         <f t="shared" ref="F4:F22" si="0">F3*2</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -4683,8 +4698,11 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -4701,8 +4719,11 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -4719,8 +4740,11 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -4737,8 +4761,11 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>10</v>
       </c>
@@ -4755,8 +4782,11 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
@@ -4773,8 +4803,11 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -4791,8 +4824,11 @@
         <f t="shared" si="0"/>
         <v>512</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>10</v>
       </c>
@@ -4809,8 +4845,11 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>10</v>
       </c>
@@ -4827,8 +4866,14 @@
         <f t="shared" si="0"/>
         <v>2048</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>48</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -4845,8 +4890,11 @@
         <f t="shared" si="0"/>
         <v>4096</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>10</v>
       </c>
@@ -4863,8 +4911,11 @@
         <f t="shared" si="0"/>
         <v>8192</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -4881,8 +4932,11 @@
         <f t="shared" si="0"/>
         <v>16384</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -4899,8 +4953,11 @@
         <f t="shared" si="0"/>
         <v>32768</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>10</v>
       </c>
@@ -4917,8 +4974,11 @@
         <f t="shared" si="0"/>
         <v>65536</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>10</v>
       </c>
@@ -4935,8 +4995,11 @@
         <f t="shared" si="0"/>
         <v>131072</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>10</v>
       </c>
@@ -4953,8 +5016,11 @@
         <f t="shared" si="0"/>
         <v>262144</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>10</v>
       </c>
@@ -4971,8 +5037,11 @@
         <f t="shared" si="0"/>
         <v>524288</v>
       </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>10</v>
       </c>
@@ -4988,6 +5057,9 @@
       <c r="F22">
         <f t="shared" si="0"/>
         <v>1048576</v>
+      </c>
+      <c r="G22" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/pa2/results.xlsx
+++ b/pa2/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwest/drive/msu/spring2019/csci566/csci566_pa/pa2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB130871-7FF5-B544-A729-2DCC4E715290}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{303C2624-E4CE-C443-B067-87808732CA2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="27">
   <si>
     <t>UDP</t>
   </si>
@@ -4591,7 +4591,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4953,8 +4953,8 @@
         <f t="shared" si="0"/>
         <v>32768</v>
       </c>
-      <c r="G17" t="s">
-        <v>26</v>
+      <c r="G17">
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">

--- a/pa2/results.xlsx
+++ b/pa2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwest/drive/msu/spring2019/csci566/csci566_pa/pa2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{303C2624-E4CE-C443-B067-87808732CA2B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16C9A677-B54A-374F-8A46-85A1E0B33DC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="27">
   <si>
     <t>UDP</t>
   </si>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -502,7 +502,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,6 +540,9 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -558,8 +561,20 @@
       <c r="G2">
         <v>256</v>
       </c>
+      <c r="H2">
+        <v>3.0956029891967701E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.1160253744858899E-2</v>
+      </c>
+      <c r="J2">
+        <v>3.2351970672607401E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -579,8 +594,20 @@
         <f>G2/2</f>
         <v>128</v>
       </c>
+      <c r="H3">
+        <v>3.0949592590332E-2</v>
+      </c>
+      <c r="I3">
+        <v>3.1083524227142299E-2</v>
+      </c>
+      <c r="J3">
+        <v>3.1283617019653299E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -600,8 +627,20 @@
         <f t="shared" ref="G4:G10" si="0">G3/2</f>
         <v>64</v>
       </c>
+      <c r="H4">
+        <v>3.0978918075561499E-2</v>
+      </c>
+      <c r="I4">
+        <v>3.1113496193519E-2</v>
+      </c>
+      <c r="J4">
+        <v>3.1389951705932603E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -621,8 +660,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
+      <c r="H5">
+        <v>3.08954715728759E-2</v>
+      </c>
+      <c r="I5">
+        <v>3.1074872383704499E-2</v>
+      </c>
+      <c r="J5">
+        <v>3.1439781188964802E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -642,8 +693,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
+      <c r="H6">
+        <v>3.0788183212280201E-2</v>
+      </c>
+      <c r="I6">
+        <v>3.0977189540862999E-2</v>
+      </c>
+      <c r="J6">
+        <v>3.1207561492919901E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -663,8 +726,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="H7">
+        <v>3.0765533447265601E-2</v>
+      </c>
+      <c r="I7">
+        <v>3.0928405431600699E-2</v>
+      </c>
+      <c r="J7">
+        <v>3.1269073486328097E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -684,8 +759,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="H8">
+        <v>3.0736684799194301E-2</v>
+      </c>
+      <c r="I8">
+        <v>3.0900579232435901E-2</v>
+      </c>
+      <c r="J8">
+        <v>3.1119823455810498E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
@@ -705,8 +792,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="H9">
+        <v>3.0732154846191399E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.0891730235173099E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.1092405319213801E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -725,6 +824,15 @@
       <c r="G10">
         <f t="shared" si="0"/>
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>3.0709505081176699E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.08484205832848E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.1126022338867101E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3480,7 +3588,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4590,7 +4698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>

--- a/pa2/results.xlsx
+++ b/pa2/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradwest/drive/msu/spring2019/csci566/csci566_pa/pa2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16C9A677-B54A-374F-8A46-85A1E0B33DC9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{274152F8-B965-ED41-8F64-D20795C5B0AD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="25240" windowHeight="15700" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="exp_1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -2296,7 +2296,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2359,10 +2359,10 @@
         <v>35.837173461913999</v>
       </c>
       <c r="I2">
+        <v>174.92847259228</v>
+      </c>
+      <c r="J2">
         <v>1015.5351161956701</v>
-      </c>
-      <c r="J2">
-        <v>174.92847259228</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -2391,10 +2391,10 @@
         <v>44.154882431030195</v>
       </c>
       <c r="I3">
+        <v>353.609268481914</v>
+      </c>
+      <c r="J3">
         <v>1037.1267795562699</v>
-      </c>
-      <c r="J3">
-        <v>353.609268481914</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2423,10 +2423,10 @@
         <v>34.935474395751896</v>
       </c>
       <c r="I4">
+        <v>284.86573696136401</v>
+      </c>
+      <c r="J4">
         <v>1060.6274604797302</v>
-      </c>
-      <c r="J4">
-        <v>284.86573696136401</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -2455,10 +2455,10 @@
         <v>48.577785491943295</v>
       </c>
       <c r="I5">
+        <v>394.71617111792898</v>
+      </c>
+      <c r="J5">
         <v>1034.8284244537301</v>
-      </c>
-      <c r="J5">
-        <v>394.71617111792898</v>
       </c>
     </row>
   </sheetData>
@@ -4698,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
